--- a/Assets/StreamingAssets/TestSpreadsheet.xlsx
+++ b/Assets/StreamingAssets/TestSpreadsheet.xlsx
@@ -4,17 +4,44 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="DataNew" localSheetId="1">Sheet2!$A$1:$L$11</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="DataNew" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\Git\lakhta\Lahta\Assets\StreamingAssets\DataNew.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t>first</t>
   </si>
@@ -26,13 +53,314 @@
   </si>
   <si>
     <t>forth</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>НазваниеФазы</t>
+  </si>
+  <si>
+    <t>ДатаНачала</t>
+  </si>
+  <si>
+    <t>ОкончаниеПлан</t>
+  </si>
+  <si>
+    <t>ОкончаниеПрогноз</t>
+  </si>
+  <si>
+    <t>DOCUMENT NUMBER</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>REVISION</t>
+  </si>
+  <si>
+    <t>REVISION DESCRIPTION</t>
+  </si>
+  <si>
+    <t>REVISION DATE</t>
+  </si>
+  <si>
+    <t>REVIEW CATEGORY</t>
+  </si>
+  <si>
+    <t>REVIEW STATUS</t>
+  </si>
+  <si>
+    <t>PDF FILE NAME</t>
+  </si>
+  <si>
+    <t>NATIVE FILE NAME</t>
+  </si>
+  <si>
+    <t>COUNTRY / FACILITY</t>
+  </si>
+  <si>
+    <t>DOCUMENT ORIGINATOR</t>
+  </si>
+  <si>
+    <t>DEPARTMENT</t>
+  </si>
+  <si>
+    <t>PROJECT AREA</t>
+  </si>
+  <si>
+    <t>DISCIPLINE</t>
+  </si>
+  <si>
+    <t>DOC TYPE</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>SUB-SYSTEM</t>
+  </si>
+  <si>
+    <t>SEQUENCE NUMBER</t>
+  </si>
+  <si>
+    <t>SHEET NUMBER</t>
+  </si>
+  <si>
+    <t>DFO CATEGORY</t>
+  </si>
+  <si>
+    <t>INTEGRITY CRITICAL</t>
+  </si>
+  <si>
+    <t>AS-BUILT REQUIRED</t>
+  </si>
+  <si>
+    <t>DFO VOLUME NUMBER</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION WORK PACKAGE</t>
+  </si>
+  <si>
+    <t>SUB-CONTRACT NUMBERS</t>
+  </si>
+  <si>
+    <t>TAG NUMBERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANGUAGE REQUIRED </t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>RETENTION</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-01000.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-010 - CONTENTS</t>
+  </si>
+  <si>
+    <t>50-50</t>
+  </si>
+  <si>
+    <t>IAB</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-01000.8001_50-50.PDF; RUSA-ABE-WC-PM-01000.8001_50-50.DOC</t>
+  </si>
+  <si>
+    <t>WORD</t>
+  </si>
+  <si>
+    <t>RUSA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>8001</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>K001</t>
+  </si>
+  <si>
+    <t>ENGLISH; RUSSIAN</t>
+  </si>
+  <si>
+    <t>ENGL; RUSS</t>
+  </si>
+  <si>
+    <t>DFO</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-02000.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-020 OVERVIEW</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-02000.8001_50-50.PDF; RUSA-ABE-WC-PM-02000.8001_50-50.DOC</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-03000.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-030 GENERIC RISKS</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-03000.8001_50-50.PDF; RUSA-ABE-WC-PM-03000.8001_50-50.DOC</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-11000.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-110 WELLHEADS AND GATHERING FACILITIES - MANIFOLDS</t>
+  </si>
+  <si>
+    <t>52-50</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-11000.8001_52-50.PDF; RUSA-ABE-WC-PM-11000.8001_52-50.DOC</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-11100.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEM DESCRIPTION MANUAL - WC-111 TEST SEPARATION SYSTEM</t>
+  </si>
+  <si>
+    <t>51-50</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-11100.8001_51-50.PDF; RUSA-ABE-WC-PM-11100.8001_51-50.DOC</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-11200.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-112 - GAS INJECTION - GAS LIFT SYSTEM</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-11200.8001_51-50.PDF; RUSA-ABE-WC-PM-11200.8001_51-50.DOC</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-15000.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-150 VENTS AND DRAINS</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-15000.8001_50-50.PDF; RUSA-ABE-WC-PM-15000.8001_50-50.DOC</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-15300.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-153 HYDRAULIC SYSTEM</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-15300.8001_51-50.PDF; RUSA-ABE-WC-PM-15300.8001_51-50.DOC</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-16000.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - SYSTEMS DESCRIPTION MANUAL - WC-160 - FIRE PROTECTION - CHAYVO WELLSITE EXPANSION</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-16000.8001_50-50.PDF; RUSA-ABE-WC-PM-16000.8001_50-50.DOC</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-19500.8001</t>
+  </si>
+  <si>
+    <t>PROCESS - OPERATION MANUAL - SYSTEM DESCRIPTION MANUAL - WC-195 ELECTRICAL SYSTEMS</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>RUSA-ABE-WC-PM-19500.8001_50-50.PDF</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="[$-409]dd\-mmm\-yy;@"/>
+  </numFmts>
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +368,362 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -57,15 +731,413 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="122">
+    <cellStyle name="1 000  - Style2" xfId="3"/>
+    <cellStyle name="1 000  - Style3" xfId="4"/>
+    <cellStyle name="1 000  - Style4" xfId="5"/>
+    <cellStyle name="1 000  - Style5" xfId="6"/>
+    <cellStyle name="1 000  - Style6" xfId="7"/>
+    <cellStyle name="1 000  - Style7" xfId="8"/>
+    <cellStyle name="1 000  - Style8" xfId="9"/>
+    <cellStyle name="20% - Акцент1" xfId="10"/>
+    <cellStyle name="20% - Акцент1 2" xfId="11"/>
+    <cellStyle name="20% - Акцент2" xfId="12"/>
+    <cellStyle name="20% - Акцент2 2" xfId="13"/>
+    <cellStyle name="20% - Акцент3" xfId="14"/>
+    <cellStyle name="20% - Акцент3 2" xfId="15"/>
+    <cellStyle name="20% - Акцент4" xfId="16"/>
+    <cellStyle name="20% - Акцент4 2" xfId="17"/>
+    <cellStyle name="20% - Акцент5" xfId="18"/>
+    <cellStyle name="20% - Акцент5 2" xfId="19"/>
+    <cellStyle name="20% - Акцент6" xfId="20"/>
+    <cellStyle name="20% - Акцент6 2" xfId="21"/>
+    <cellStyle name="40% - Акцент1" xfId="22"/>
+    <cellStyle name="40% - Акцент1 2" xfId="23"/>
+    <cellStyle name="40% - Акцент2" xfId="24"/>
+    <cellStyle name="40% - Акцент2 2" xfId="25"/>
+    <cellStyle name="40% - Акцент3" xfId="26"/>
+    <cellStyle name="40% - Акцент3 2" xfId="27"/>
+    <cellStyle name="40% - Акцент4" xfId="28"/>
+    <cellStyle name="40% - Акцент4 2" xfId="29"/>
+    <cellStyle name="40% - Акцент5" xfId="30"/>
+    <cellStyle name="40% - Акцент5 2" xfId="31"/>
+    <cellStyle name="40% - Акцент6" xfId="32"/>
+    <cellStyle name="40% - Акцент6 2" xfId="33"/>
+    <cellStyle name="60% - Акцент1" xfId="34"/>
+    <cellStyle name="60% - Акцент1 2" xfId="35"/>
+    <cellStyle name="60% - Акцент2" xfId="36"/>
+    <cellStyle name="60% - Акцент2 2" xfId="37"/>
+    <cellStyle name="60% - Акцент3" xfId="38"/>
+    <cellStyle name="60% - Акцент3 2" xfId="39"/>
+    <cellStyle name="60% - Акцент4" xfId="40"/>
+    <cellStyle name="60% - Акцент4 2" xfId="41"/>
+    <cellStyle name="60% - Акцент5" xfId="42"/>
+    <cellStyle name="60% - Акцент5 2" xfId="43"/>
+    <cellStyle name="60% - Акцент6" xfId="44"/>
+    <cellStyle name="60% - Акцент6 2" xfId="45"/>
+    <cellStyle name="Bad 2" xfId="46"/>
+    <cellStyle name="Calculation 2" xfId="47"/>
+    <cellStyle name="Currency [2]" xfId="48"/>
+    <cellStyle name="Custo - Style8" xfId="49"/>
+    <cellStyle name="Data  - Style2" xfId="50"/>
+    <cellStyle name="Good 2" xfId="51"/>
+    <cellStyle name="Good 2 2" xfId="52"/>
+    <cellStyle name="Hyperlink 2" xfId="53"/>
+    <cellStyle name="Input 2" xfId="54"/>
+    <cellStyle name="Label - Style3" xfId="55"/>
+    <cellStyle name="Neutral 2" xfId="56"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="57"/>
+    <cellStyle name="Normal 3" xfId="58"/>
+    <cellStyle name="Normal 3 2" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="59"/>
+    <cellStyle name="Normal 5" xfId="60"/>
+    <cellStyle name="Normal 5 2" xfId="121"/>
+    <cellStyle name="Reset - Style7" xfId="61"/>
+    <cellStyle name="Style 1" xfId="62"/>
+    <cellStyle name="Style 1 2" xfId="63"/>
+    <cellStyle name="Style1" xfId="64"/>
+    <cellStyle name="Table - Style6" xfId="65"/>
+    <cellStyle name="Title - Style1" xfId="66"/>
+    <cellStyle name="TotCo - Style5" xfId="67"/>
+    <cellStyle name="TotRo - Style4" xfId="68"/>
+    <cellStyle name="Акцент1" xfId="69"/>
+    <cellStyle name="Акцент1 2" xfId="70"/>
+    <cellStyle name="Акцент2" xfId="71"/>
+    <cellStyle name="Акцент2 2" xfId="72"/>
+    <cellStyle name="Акцент3" xfId="73"/>
+    <cellStyle name="Акцент3 2" xfId="74"/>
+    <cellStyle name="Акцент4" xfId="75"/>
+    <cellStyle name="Акцент4 2" xfId="76"/>
+    <cellStyle name="Акцент5" xfId="77"/>
+    <cellStyle name="Акцент5 2" xfId="78"/>
+    <cellStyle name="Акцент6" xfId="79"/>
+    <cellStyle name="Акцент6 2" xfId="80"/>
+    <cellStyle name="Ввод " xfId="81"/>
+    <cellStyle name="Ввод  2" xfId="82"/>
+    <cellStyle name="Вывод" xfId="83"/>
+    <cellStyle name="Вывод 2" xfId="84"/>
+    <cellStyle name="Вычисление" xfId="85"/>
+    <cellStyle name="Вычисление 2" xfId="86"/>
+    <cellStyle name="Заголовок 1" xfId="87"/>
+    <cellStyle name="Заголовок 1 2" xfId="88"/>
+    <cellStyle name="Заголовок 2" xfId="89"/>
+    <cellStyle name="Заголовок 2 2" xfId="90"/>
+    <cellStyle name="Заголовок 3" xfId="91"/>
+    <cellStyle name="Заголовок 3 2" xfId="92"/>
+    <cellStyle name="Заголовок 4" xfId="93"/>
+    <cellStyle name="Заголовок 4 2" xfId="94"/>
+    <cellStyle name="Итог" xfId="95"/>
+    <cellStyle name="Итог 2" xfId="96"/>
+    <cellStyle name="Контрольная ячейка" xfId="97"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="98"/>
+    <cellStyle name="Название" xfId="99"/>
+    <cellStyle name="Название 2" xfId="100"/>
+    <cellStyle name="Нейтральный" xfId="101"/>
+    <cellStyle name="Нейтральный 2" xfId="102"/>
+    <cellStyle name="Обычный 2" xfId="103"/>
+    <cellStyle name="Обычный 2 2" xfId="104"/>
+    <cellStyle name="Обычный 2 2 2" xfId="105"/>
+    <cellStyle name="Обычный 3" xfId="106"/>
+    <cellStyle name="Обычный 4" xfId="107"/>
+    <cellStyle name="Обычный_Лист1" xfId="108"/>
+    <cellStyle name="Плохой" xfId="109"/>
+    <cellStyle name="Плохой 2" xfId="110"/>
+    <cellStyle name="Пояснение" xfId="111"/>
+    <cellStyle name="Пояснение 2" xfId="112"/>
+    <cellStyle name="Примечание" xfId="113"/>
+    <cellStyle name="Примечание 2" xfId="114"/>
+    <cellStyle name="Связанная ячейка" xfId="115"/>
+    <cellStyle name="Связанная ячейка 2" xfId="116"/>
+    <cellStyle name="Текст предупреждения" xfId="117"/>
+    <cellStyle name="Текст предупреждения 2" xfId="118"/>
+    <cellStyle name="Хороший" xfId="119"/>
+    <cellStyle name="Хороший 2" xfId="120"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -78,6 +1150,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataNew" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -367,15 +1443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +1467,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -403,7 +1485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>45</v>
       </c>
@@ -415,6 +1497,1025 @@
       </c>
       <c r="D3">
         <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="153" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="6">
+        <v>41765</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6">
+        <v>41793</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
